--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\IdeaProjects\BIF-SS19-SWE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90DDD5AE-5D51-41CB-91AB-037AEBF885F7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F201C-539B-4B56-B261-281A89380B0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -55,28 +55,7 @@
     <t>Anmerkung</t>
   </si>
   <si>
-    <t>Arthur</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Sebastian</t>
-  </si>
-  <si>
-    <t>Meeting</t>
-  </si>
-  <si>
     <t>Development</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>Recherche</t>
-  </si>
-  <si>
-    <t>Deployment</t>
   </si>
   <si>
     <t>Wichtig! Evtl muss der Datenbereich angepasst werden</t>
@@ -104,6 +83,12 @@
   </si>
   <si>
     <t>Summe:</t>
+  </si>
+  <si>
+    <t>Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten</t>
+  </si>
+  <si>
+    <t>Bildergallerie added, AuthorenManager added, Validierung von Authoren / Bilderdaten im BL added, Suchfunktion nach Keywords added --&gt; PROBLEM: PUSH NICHT MÖGLICH!</t>
   </si>
 </sst>
 </file>
@@ -145,7 +130,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -157,39 +142,6 @@
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="65"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF999999"/>
@@ -214,37 +166,6 @@
       <left style="thin">
         <color rgb="FF999999"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF999999"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF999999"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF999999"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF999999"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color rgb="FF999999"/>
@@ -273,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -302,6 +223,21 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -311,59 +247,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -457,9 +342,6 @@
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -487,7 +369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Deployment</c:v>
+                  <c:v>Gesamtergebnis</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,9 +397,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -544,9 +423,6 @@
               <c:f>'Zeitliste Pivot'!$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Development</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -573,9 +449,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -602,9 +475,6 @@
               <c:f>'Zeitliste Pivot'!$A$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Management</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -631,9 +501,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -660,9 +527,6 @@
               <c:f>'Zeitliste Pivot'!$A$6</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Meeting</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -689,12 +553,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -721,9 +579,6 @@
               <c:f>'Zeitliste Pivot'!$A$7</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Recherche</c:v>
-                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -750,9 +605,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -939,34 +791,37 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43603.056469328701" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43618.809203703706" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:E153" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-05-19T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Arthur"/>
-        <s v="Sebastian"/>
+      <sharedItems containsBlank="1" count="4">
+        <s v="Dittmann"/>
         <m/>
+        <s v="Sebastian" u="1"/>
+        <s v="Arthur" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Tätigkeit" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="Management"/>
-        <s v="Meeting"/>
+      <sharedItems containsBlank="1" count="9">
+        <s v="Projekteinrichtung"/>
         <s v="Development"/>
-        <s v="Testing"/>
-        <s v="Recherche"/>
-        <s v="Deployment"/>
         <m/>
+        <s v="Summe:"/>
+        <s v="Deployment" u="1"/>
+        <s v="Meeting" u="1"/>
+        <s v="Testing" u="1"/>
+        <s v="Recherche" u="1"/>
+        <s v="Management" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="4"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -983,1038 +838,1038 @@
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="148">
   <r>
-    <s v="1.9.2013"/>
+    <d v="2019-05-14T00:00:00"/>
     <x v="0"/>
     <x v="0"/>
-    <n v="1"/>
-    <s v="Am Sonntag arbeiten kann wenig"/>
-  </r>
-  <r>
-    <s v="2.9.2013"/>
-    <x v="1"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="Bei Kaffee und Kuchen"/>
-  </r>
-  <r>
-    <s v="2.9.2013"/>
+    <n v="4"/>
+    <s v="Einrichten des Maven Projektes, um mit JavaFX eine erstes sample Programm zu starten"/>
+  </r>
+  <r>
+    <d v="2019-05-15T00:00:00"/>
     <x v="0"/>
-    <x v="1"/>
-    <n v="2"/>
-    <s v="Bei Kaffee und Kuchen"/>
-  </r>
-  <r>
-    <s v="2.9.2013"/>
     <x v="0"/>
-    <x v="2"/>
-    <n v="4"/>
-    <s v="Damit was weiter geht"/>
-  </r>
-  <r>
-    <s v="2.9.2013"/>
+    <n v="5"/>
+    <s v="Einbindung von JDBC und Derby -&gt; Derby kann nicht über Maven bezogen werden, da sonst Fehler (Libs werden nicht erkannt zur Laufzeit). DAL und dazugehörige DB-Tabellen überlegt. Interface geschrieben Grundlegendes erstes Design mittels Scenebuilder angele"/>
+  </r>
+  <r>
+    <d v="2019-05-18T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7"/>
+    <s v="Erstellen des DAL (TODO: Suchfunktion), Prepared Statements, Connection Pooling (DBCP), DataModels angelegt."/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
     <x v="1"/>
     <x v="3"/>
-    <n v="1"/>
-    <s v="Fast alles funktioniert"/>
-  </r>
-  <r>
-    <s v="3.9.2013"/>
-    <x v="0"/>
-    <x v="4"/>
-    <n v="2"/>
-    <s v="Was neues versuchen"/>
-  </r>
-  <r>
-    <s v="4.9.2013"/>
-    <x v="1"/>
-    <x v="5"/>
-    <n v="2"/>
-    <s v="Am Server zum Laufen bringen"/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="2"/>
-    <x v="6"/>
+    <n v="16"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="2"/>
     <m/>
     <m/>
   </r>
@@ -2023,26 +1878,29 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Zeitliste Pivot" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0" dataCaption="" updatedVersion="6" compact="0" compactData="0">
-  <location ref="A1:D9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <location ref="A1:B3" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField name="Datum" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0"/>
     <pivotField name="Ausführende/r" axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
+      <items count="5">
+        <item m="1" x="3"/>
+        <item h="1" x="0"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField name="Tätigkeit" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="8">
-        <item x="5"/>
+      <items count="10">
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item m="1" x="8"/>
+        <item m="1" x="5"/>
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item x="3"/>
+        <item m="1" x="6"/>
         <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2052,25 +1910,7 @@
   <rowFields count="1">
     <field x="2"/>
   </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
+  <rowItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -2078,13 +1918,7 @@
   <colFields count="1">
     <field x="1"/>
   </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
+  <colItems count="1">
     <i t="grand">
       <x/>
     </i>
@@ -2404,7 +2238,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2414,13 +2248,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2430,13 +2264,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -2463,69 +2297,89 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30">
+      <c r="A6" s="14">
         <v>43599</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" s="5">
         <v>4</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="A7" s="30">
+      <c r="A7" s="14">
         <v>43600</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D7" s="5">
         <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="30">
+      <c r="A8" s="14">
         <v>43603</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D8" s="5">
         <v>7</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>43617</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>43618</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5">
+        <v>7</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
@@ -2594,11 +2448,11 @@
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D20" s="7">
         <f>SUM(D6:D17)</f>
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -3585,120 +3439,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>17</v>
+      <c r="B2" s="11" t="s">
+        <v>10</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20">
-        <v>2</v>
-      </c>
-      <c r="D3" s="21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="23">
-        <v>4</v>
-      </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="23">
-        <v>1</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="23">
-        <v>2</v>
-      </c>
-      <c r="C6" s="24">
-        <v>2</v>
-      </c>
-      <c r="D6" s="25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="23">
-        <v>2</v>
-      </c>
-      <c r="C7" s="24"/>
-      <c r="D7" s="25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="24">
-        <v>1</v>
-      </c>
-      <c r="D8" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="27">
-        <v>9</v>
-      </c>
-      <c r="C9" s="28">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29">
-        <v>14</v>
-      </c>
-    </row>
+      <c r="B3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\IdeaProjects\BIF-SS19-SWE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58F201C-539B-4B56-B261-281A89380B0C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87204E23-388C-4CC9-9E60-B7B5451C30F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Bildergallerie added, AuthorenManager added, Validierung von Authoren / Bilderdaten im BL added, Suchfunktion nach Keywords added --&gt; PROBLEM: PUSH NICHT MÖGLICH!</t>
+  </si>
+  <si>
+    <t>Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber werden nicht übernommen)</t>
   </si>
 </sst>
 </file>
@@ -238,6 +241,9 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -246,9 +252,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -791,13 +794,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43618.809203703706" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43619.752623611108" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:E153" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-05-19T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-06-03T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -821,7 +824,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="16"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="33"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -859,18 +862,18 @@
     <s v="Erstellen des DAL (TODO: Suchfunktion), Prepared Statements, Connection Pooling (DBCP), DataModels angelegt."/>
   </r>
   <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <d v="2019-06-01T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="10"/>
+    <s v="Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten"/>
+  </r>
+  <r>
+    <d v="2019-06-02T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="7"/>
+    <s v="Bildergallerie added, AuthorenManager added, Validierung von Authoren / Bilderdaten im BL added, Suchfunktion nach Keywords added --&gt; PROBLEM: PUSH NICHT MÖGLICH!"/>
   </r>
   <r>
     <m/>
@@ -939,7 +942,7 @@
     <m/>
     <x v="1"/>
     <x v="3"/>
-    <n v="16"/>
+    <n v="33"/>
     <m/>
   </r>
   <r>
@@ -2238,7 +2241,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2248,13 +2251,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
@@ -2264,13 +2267,13 @@
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="17"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
@@ -2381,12 +2384,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
+    <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>43619</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="5">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
@@ -2452,7 +2465,7 @@
       </c>
       <c r="D20" s="7">
         <f>SUM(D6:D17)</f>
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E20" s="8"/>
     </row>
@@ -3442,7 +3455,7 @@
       <c r="A1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="15" t="s">
         <v>3</v>
       </c>
     </row>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\IdeaProjects\BIF-SS19-SWE2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87204E23-388C-4CC9-9E60-B7B5451C30F9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA9478-6087-4321-84A9-9679227E5E80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitliste" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber werden nicht übernommen)</t>
+  </si>
+  <si>
+    <t>Bugfixing beim Ändern der Daten von Authoren. --&gt; Zuvor Applikations-Crash wegen endlos Schleife</t>
   </si>
 </sst>
 </file>
@@ -794,13 +797,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43619.752623611108" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43620.51179409722" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:E153" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-06-03T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-06-04T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -824,7 +827,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="33"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="38"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -876,11 +879,11 @@
     <s v="Bildergallerie added, AuthorenManager added, Validierung von Authoren / Bilderdaten im BL added, Suchfunktion nach Keywords added --&gt; PROBLEM: PUSH NICHT MÖGLICH!"/>
   </r>
   <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <d v="2019-06-03T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="5"/>
+    <s v="Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber werden nicht übernommen)"/>
   </r>
   <r>
     <m/>
@@ -942,7 +945,7 @@
     <m/>
     <x v="1"/>
     <x v="3"/>
-    <n v="33"/>
+    <n v="38"/>
     <m/>
   </r>
   <r>
@@ -2241,7 +2244,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2402,11 +2405,21 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
+      <c r="A12" s="14">
+        <v>43620</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="5">
+        <v>1</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
@@ -2465,7 +2478,7 @@
       </c>
       <c r="D20" s="7">
         <f>SUM(D6:D17)</f>
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" s="8"/>
     </row>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\IdeaProjects\BIF-SS19-SWE2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\IdeaProjects\BIF-SS19-SWE2-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CA9478-6087-4321-84A9-9679227E5E80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DE2A8-9638-4C4F-8157-F1B291B1DA21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Zeitliste" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
   <si>
     <t>Zeiterfassung</t>
   </si>
@@ -85,16 +85,22 @@
     <t>Summe:</t>
   </si>
   <si>
-    <t>Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten</t>
-  </si>
-  <si>
     <t>Bildergallerie added, AuthorenManager added, Validierung von Authoren / Bilderdaten im BL added, Suchfunktion nach Keywords added --&gt; PROBLEM: PUSH NICHT MÖGLICH!</t>
   </si>
   <si>
-    <t>Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber werden nicht übernommen)</t>
+    <t>Bugfixing beim Ändern der Daten von Authoren. --&gt; Zuvor Applikations-Crash wegen endlos Schleife</t>
   </si>
   <si>
-    <t>Bugfixing beim Ändern der Daten von Authoren. --&gt; Zuvor Applikations-Crash wegen endlos Schleife</t>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Ersatzbericht geschrieben, Dokumentation angepasst, Abschluss Bericht geschrieben</t>
+  </si>
+  <si>
+    <t>Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber wird nicht übernommen)</t>
+  </si>
+  <si>
+    <t>komplette Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten</t>
   </si>
 </sst>
 </file>
@@ -797,13 +803,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43620.51179409722" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43620.707195370371" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:E153" sheet="Zeitliste"/>
   </cacheSource>
   <cacheFields count="5">
     <cacheField name="Datum" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-06-04T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2019-05-14T00:00:00" maxDate="2019-06-05T00:00:00"/>
     </cacheField>
     <cacheField name="Ausführende/r" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -827,7 +833,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="4" maxValue="38"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -886,11 +892,11 @@
     <s v="Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber werden nicht übernommen)"/>
   </r>
   <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
+    <d v="2019-06-04T00:00:00"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="1"/>
+    <s v="Bugfixing beim Ändern der Daten von Authoren. --&gt; Zuvor Applikations-Crash wegen endlos Schleife"/>
   </r>
   <r>
     <m/>
@@ -945,7 +951,7 @@
     <m/>
     <x v="1"/>
     <x v="3"/>
-    <n v="38"/>
+    <n v="39"/>
     <m/>
   </r>
   <r>
@@ -2244,7 +2250,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2367,7 +2373,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -2381,10 +2387,10 @@
         <v>7</v>
       </c>
       <c r="D10" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -2401,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2418,15 +2424,25 @@
         <v>1</v>
       </c>
       <c r="E12" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>43620</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
@@ -2478,7 +2494,7 @@
       </c>
       <c r="D20" s="7">
         <f>SUM(D6:D17)</f>
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E20" s="8"/>
     </row>

--- a/Zeiterfassung.xlsx
+++ b/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dditt\IdeaProjects\BIF-SS19-SWE2-origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295DE2A8-9638-4C4F-8157-F1B291B1DA21}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC2FB7E3-FC97-470A-B0FA-D2E4852510A6}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,16 +91,16 @@
     <t>Bugfixing beim Ändern der Daten von Authoren. --&gt; Zuvor Applikations-Crash wegen endlos Schleife</t>
   </si>
   <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Ersatzbericht geschrieben, Dokumentation angepasst, Abschluss Bericht geschrieben</t>
-  </si>
-  <si>
     <t>Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber wird nicht übernommen)</t>
   </si>
   <si>
     <t>komplette Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten</t>
+  </si>
+  <si>
+    <t>Logging, Ersatzbericht geschrieben, Dokumentation angepasst, Abschluss Bericht geschrieben</t>
+  </si>
+  <si>
+    <t>Developement / Management</t>
   </si>
 </sst>
 </file>
@@ -803,7 +803,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43620.707195370371" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshOnLoad="1" refreshedBy="David Dittmann" refreshedDate="43620.860499537041" refreshedVersion="6" recordCount="148" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A5:E153" sheet="Zeitliste"/>
   </cacheSource>
@@ -820,9 +820,10 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Tätigkeit" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
+      <sharedItems containsBlank="1" count="10">
         <s v="Projekteinrichtung"/>
         <s v="Development"/>
+        <s v="Developement / Management"/>
         <m/>
         <s v="Summe:"/>
         <s v="Deployment" u="1"/>
@@ -833,7 +834,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="Dauer (h)" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="45"/>
     </cacheField>
     <cacheField name="Anmerkung" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -875,13 +876,13 @@
     <x v="0"/>
     <x v="1"/>
     <n v="10"/>
-    <s v="Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten"/>
+    <s v="komplette Überarbeitung DAL, Presentationmodels erstellt, Datamodels angepasst, binding der presentationmodels zum GUI, Anzeige des ersten Bildes und der dazugehörigen Daten"/>
   </r>
   <r>
     <d v="2019-06-02T00:00:00"/>
     <x v="0"/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Bildergallerie added, AuthorenManager added, Validierung von Authoren / Bilderdaten im BL added, Suchfunktion nach Keywords added --&gt; PROBLEM: PUSH NICHT MÖGLICH!"/>
   </r>
   <r>
@@ -889,7 +890,7 @@
     <x v="0"/>
     <x v="1"/>
     <n v="5"/>
-    <s v="Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber werden nicht übernommen)"/>
+    <s v="Dokumentation (Javadoc) geschrieben, ConfigurationManager erstellt, Versucht das Projekt in ein JAR zu packen, aber daran gescheitert (JDBC Treiber wird nicht übernommen)"/>
   </r>
   <r>
     <d v="2019-06-04T00:00:00"/>
@@ -899,989 +900,989 @@
     <s v="Bugfixing beim Ändern der Daten von Authoren. --&gt; Zuvor Applikations-Crash wegen endlos Schleife"/>
   </r>
   <r>
-    <m/>
-    <x v="1"/>
+    <d v="2019-06-04T00:00:00"/>
+    <x v="0"/>
     <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="3"/>
-    <n v="39"/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="1"/>
-    <x v="2"/>
+    <n v="5"/>
+    <s v="Logging, Ersatzbericht geschrieben, Dokumentation angepasst, Abschluss Bericht geschrieben"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="45"/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="3"/>
     <m/>
     <m/>
   </r>
@@ -1903,16 +1904,17 @@
       </items>
     </pivotField>
     <pivotField name="Tätigkeit" axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" sortType="ascending">
-      <items count="10">
-        <item m="1" x="4"/>
+      <items count="11">
+        <item m="1" x="5"/>
+        <item x="2"/>
         <item x="1"/>
+        <item m="1" x="9"/>
+        <item m="1" x="6"/>
+        <item x="0"/>
         <item m="1" x="8"/>
-        <item m="1" x="5"/>
-        <item x="0"/>
+        <item x="4"/>
         <item m="1" x="7"/>
         <item x="3"/>
-        <item m="1" x="6"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2250,7 +2252,7 @@
   <dimension ref="A1:E157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2373,7 +2375,7 @@
         <v>10</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
@@ -2407,7 +2409,7 @@
         <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2427,7 +2429,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>43620</v>
       </c>
@@ -2435,13 +2437,13 @@
         <v>11</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2494,7 +2496,7 @@
       </c>
       <c r="D20" s="7">
         <f>SUM(D6:D17)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E20" s="8"/>
     </row>
